--- a/natmiOut/OldD0/LR-pairs_lrc2p/Lgi2-Adam11.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Lgi2-Adam11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,10 +519,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -528,49 +531,49 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>14.2634304955291</v>
+        <v>0.058936</v>
       </c>
       <c r="H2">
-        <v>14.2634304955291</v>
+        <v>0.176808</v>
       </c>
       <c r="I2">
-        <v>0.8896130424049071</v>
+        <v>0.003640699631737656</v>
       </c>
       <c r="J2">
-        <v>0.8896130424049071</v>
+        <v>0.003640699631737656</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.392928782403534</v>
+        <v>0.07360033333333334</v>
       </c>
       <c r="N2">
-        <v>0.392928782403534</v>
+        <v>0.220801</v>
       </c>
       <c r="O2">
-        <v>0.1636958363652748</v>
+        <v>0.02873450582079328</v>
       </c>
       <c r="P2">
-        <v>0.1636958363652748</v>
+        <v>0.02873450582079327</v>
       </c>
       <c r="Q2">
-        <v>5.604512377505685</v>
+        <v>0.004337709245333333</v>
       </c>
       <c r="R2">
-        <v>5.604512377505685</v>
+        <v>0.039039383208</v>
       </c>
       <c r="S2">
-        <v>0.145625951017928</v>
+        <v>0.0001046137047599256</v>
       </c>
       <c r="T2">
-        <v>0.145625951017928</v>
+        <v>0.0001046137047599256</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -590,111 +593,111 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>14.2634304955291</v>
+        <v>0.058936</v>
       </c>
       <c r="H3">
-        <v>14.2634304955291</v>
+        <v>0.176808</v>
       </c>
       <c r="I3">
-        <v>0.8896130424049071</v>
+        <v>0.003640699631737656</v>
       </c>
       <c r="J3">
-        <v>0.8896130424049071</v>
+        <v>0.003640699631737656</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.00743026843233</v>
+        <v>0.4213883333333333</v>
       </c>
       <c r="N3">
-        <v>2.00743026843233</v>
+        <v>1.264165</v>
       </c>
       <c r="O3">
-        <v>0.8363041636347252</v>
+        <v>0.1645153624799848</v>
       </c>
       <c r="P3">
-        <v>0.8363041636347252</v>
+        <v>0.1645153624799848</v>
       </c>
       <c r="Q3">
-        <v>28.63284210840586</v>
+        <v>0.02483494281333333</v>
       </c>
       <c r="R3">
-        <v>28.63284210840586</v>
+        <v>0.22351448532</v>
       </c>
       <c r="S3">
-        <v>0.7439870913869792</v>
+        <v>0.0005989510195960678</v>
       </c>
       <c r="T3">
-        <v>0.7439870913869792</v>
+        <v>0.0005989510195960678</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.76986692215546</v>
+        <v>0.058936</v>
       </c>
       <c r="H4">
-        <v>1.76986692215546</v>
+        <v>0.176808</v>
       </c>
       <c r="I4">
-        <v>0.110386957595093</v>
+        <v>0.003640699631737656</v>
       </c>
       <c r="J4">
-        <v>0.110386957595093</v>
+        <v>0.003640699631737656</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.392928782403534</v>
+        <v>2.066403333333334</v>
       </c>
       <c r="N4">
-        <v>0.392928782403534</v>
+        <v>6.199210000000001</v>
       </c>
       <c r="O4">
-        <v>0.1636958363652748</v>
+        <v>0.8067501316992219</v>
       </c>
       <c r="P4">
-        <v>0.1636958363652748</v>
+        <v>0.8067501316992219</v>
       </c>
       <c r="Q4">
-        <v>0.6954316547388352</v>
+        <v>0.1217855468533333</v>
       </c>
       <c r="R4">
-        <v>0.6954316547388352</v>
+        <v>1.09606992168</v>
       </c>
       <c r="S4">
-        <v>0.01806988534734688</v>
+        <v>0.002937134907381663</v>
       </c>
       <c r="T4">
-        <v>0.01806988534734688</v>
+        <v>0.002937134907381663</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -702,61 +705,371 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>14.32797533333333</v>
+      </c>
+      <c r="H5">
+        <v>42.983926</v>
+      </c>
+      <c r="I5">
+        <v>0.8850932285803735</v>
+      </c>
+      <c r="J5">
+        <v>0.8850932285803734</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.07360033333333334</v>
+      </c>
+      <c r="N5">
+        <v>0.220801</v>
+      </c>
+      <c r="O5">
+        <v>0.02873450582079328</v>
+      </c>
+      <c r="P5">
+        <v>0.02873450582079327</v>
+      </c>
+      <c r="Q5">
+        <v>1.054543760525111</v>
+      </c>
+      <c r="R5">
+        <v>9.490893844725999</v>
+      </c>
+      <c r="S5">
+        <v>0.02543271652858746</v>
+      </c>
+      <c r="T5">
+        <v>0.02543271652858745</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>14.32797533333333</v>
+      </c>
+      <c r="H6">
+        <v>42.983926</v>
+      </c>
+      <c r="I6">
+        <v>0.8850932285803735</v>
+      </c>
+      <c r="J6">
+        <v>0.8850932285803734</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.4213883333333333</v>
+      </c>
+      <c r="N6">
+        <v>1.264165</v>
+      </c>
+      <c r="O6">
+        <v>0.1645153624799848</v>
+      </c>
+      <c r="P6">
+        <v>0.1645153624799848</v>
+      </c>
+      <c r="Q6">
+        <v>6.037641645754444</v>
+      </c>
+      <c r="R6">
+        <v>54.33877481179</v>
+      </c>
+      <c r="S6">
+        <v>0.1456114333284802</v>
+      </c>
+      <c r="T6">
+        <v>0.1456114333284802</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>14.32797533333333</v>
+      </c>
+      <c r="H7">
+        <v>42.983926</v>
+      </c>
+      <c r="I7">
+        <v>0.8850932285803735</v>
+      </c>
+      <c r="J7">
+        <v>0.8850932285803734</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2.066403333333334</v>
+      </c>
+      <c r="N7">
+        <v>6.199210000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.8067501316992219</v>
+      </c>
+      <c r="P7">
+        <v>0.8067501316992219</v>
+      </c>
+      <c r="Q7">
+        <v>29.60737598871778</v>
+      </c>
+      <c r="R7">
+        <v>266.46638389846</v>
+      </c>
+      <c r="S7">
+        <v>0.7140490787233059</v>
+      </c>
+      <c r="T7">
+        <v>0.7140490787233058</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.801186</v>
+      </c>
+      <c r="H8">
+        <v>5.403558</v>
+      </c>
+      <c r="I8">
+        <v>0.111266071787889</v>
+      </c>
+      <c r="J8">
+        <v>0.1112660717878889</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.07360033333333334</v>
+      </c>
+      <c r="N8">
+        <v>0.220801</v>
+      </c>
+      <c r="O8">
+        <v>0.02873450582079328</v>
+      </c>
+      <c r="P8">
+        <v>0.02873450582079327</v>
+      </c>
+      <c r="Q8">
+        <v>0.1325678899953334</v>
+      </c>
+      <c r="R8">
+        <v>1.193111009958</v>
+      </c>
+      <c r="S8">
+        <v>0.003197175587445898</v>
+      </c>
+      <c r="T8">
+        <v>0.003197175587445897</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1.76986692215546</v>
-      </c>
-      <c r="H5">
-        <v>1.76986692215546</v>
-      </c>
-      <c r="I5">
-        <v>0.110386957595093</v>
-      </c>
-      <c r="J5">
-        <v>0.110386957595093</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>2.00743026843233</v>
-      </c>
-      <c r="N5">
-        <v>2.00743026843233</v>
-      </c>
-      <c r="O5">
-        <v>0.8363041636347252</v>
-      </c>
-      <c r="P5">
-        <v>0.8363041636347252</v>
-      </c>
-      <c r="Q5">
-        <v>3.552884430632036</v>
-      </c>
-      <c r="R5">
-        <v>3.552884430632036</v>
-      </c>
-      <c r="S5">
-        <v>0.09231707224774616</v>
-      </c>
-      <c r="T5">
-        <v>0.09231707224774616</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.801186</v>
+      </c>
+      <c r="H9">
+        <v>5.403558</v>
+      </c>
+      <c r="I9">
+        <v>0.111266071787889</v>
+      </c>
+      <c r="J9">
+        <v>0.1112660717878889</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.4213883333333333</v>
+      </c>
+      <c r="N9">
+        <v>1.264165</v>
+      </c>
+      <c r="O9">
+        <v>0.1645153624799848</v>
+      </c>
+      <c r="P9">
+        <v>0.1645153624799848</v>
+      </c>
+      <c r="Q9">
+        <v>0.7589987665633333</v>
+      </c>
+      <c r="R9">
+        <v>6.83098889907</v>
+      </c>
+      <c r="S9">
+        <v>0.01830497813190857</v>
+      </c>
+      <c r="T9">
+        <v>0.01830497813190856</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.801186</v>
+      </c>
+      <c r="H10">
+        <v>5.403558</v>
+      </c>
+      <c r="I10">
+        <v>0.111266071787889</v>
+      </c>
+      <c r="J10">
+        <v>0.1112660717878889</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.066403333333334</v>
+      </c>
+      <c r="N10">
+        <v>6.199210000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.8067501316992219</v>
+      </c>
+      <c r="P10">
+        <v>0.8067501316992219</v>
+      </c>
+      <c r="Q10">
+        <v>3.721976754353334</v>
+      </c>
+      <c r="R10">
+        <v>33.49779078918001</v>
+      </c>
+      <c r="S10">
+        <v>0.0897639180685345</v>
+      </c>
+      <c r="T10">
+        <v>0.08976391806853448</v>
       </c>
     </row>
   </sheetData>
